--- a/Datos informalidad 2010-2020/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
+++ b/Datos informalidad 2010-2020/Output/tcp_mujeres_informalidad_asalariadas_privadas.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4802,6 +4802,40 @@
         <v>0.138</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ene2020_11</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>190495.1837860133</v>
+      </c>
+      <c r="C131">
+        <v>1705513.05079198</v>
+      </c>
+      <c r="D131">
+        <v>2020</v>
+      </c>
+      <c r="E131">
+        <v>11</v>
+      </c>
+      <c r="F131" s="2">
+        <v>44136</v>
+      </c>
+      <c r="G131">
+        <v>78848.67817995341</v>
+      </c>
+      <c r="H131">
+        <v>247896.4039964947</v>
+      </c>
+      <c r="I131">
+        <v>0.414</v>
+      </c>
+      <c r="J131">
+        <v>0.145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
